--- a/Pruebas_Unitarias_GTS.xlsx
+++ b/Pruebas_Unitarias_GTS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Torre_I9\Documents\DAM_24_25_SAFA_REYES\2_DAM\Recetas\GrandSmartChef\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE4A07A9-D2BB-4DC5-8487-026628E8B00C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE70EB19-51A0-45BE-B410-AD89275EABCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-48930" yWindow="4275" windowWidth="38700" windowHeight="15345" xr2:uid="{D3699F1F-824D-4418-8718-AE7B8140AB30}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{D3699F1F-824D-4418-8718-AE7B8140AB30}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1730,8 +1730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E72A8A85-24E3-48E9-B3E9-50289EA66E0D}">
   <dimension ref="A1:P94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="F96" sqref="F96"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1747,6 +1747,7 @@
     <col min="11" max="11" width="38.7109375" customWidth="1"/>
     <col min="12" max="12" width="15.7109375" customWidth="1"/>
     <col min="14" max="14" width="43.42578125" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
